--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -17,13 +17,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="黑体"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="22"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,22 +433,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>电影名称</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>评分</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -36,12 +36,17 @@
       <u val="double"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDF5E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,7 +63,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -44,8 +44,9 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="darkUp">
         <fgColor rgb="00FDF5E6"/>
+        <bgColor rgb="000000FF"/>
       </patternFill>
     </fill>
   </fills>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,13 +58,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="0000FF00"/>
+      </left>
+      <right style="thick">
+        <color rgb="0000FF00"/>
+      </right>
+      <top style="thick">
+        <color rgb="0000FF00"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="0000FF00"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,38 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,54 @@
         <v>1993</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +35,9 @@
       <sz val="22"/>
       <u val="double"/>
     </font>
+    <font>
+      <color rgb="0000FF00"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -50,7 +53,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,13 +75,22 @@
         <color rgb="0000FF00"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="0000FFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="0000FFFF"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -494,9 +506,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>霸王别姬</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>霸王霸王</t>
         </is>
       </c>
       <c r="C3" t="n">

--- a/豆瓣电影Top250.xlsx
+++ b/豆瓣电影Top250.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="豆瓣电影top250" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="豆瓣电影top250" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
